--- a/Inventory Project/Sample/bin/Debug/ItemTemplate.xlsx
+++ b/Inventory Project/Sample/bin/Debug/ItemTemplate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul Badgujar\source\repos\sales\Inventory Project\Sample\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git project\sales\Inventory Project\Sample\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44024646-CF23-4528-9D15-B9786B281DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8964" xr2:uid="{463C545D-F540-4529-8617-A314FF01D3FB}"/>
+    <workbookView xWindow="2970" yWindow="2970" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,39 +471,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90ABA6ED-A3AB-4CE1-8D2E-52D59C0A9881}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
     <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="21" max="21" width="15.21875" customWidth="1"/>
-    <col min="22" max="22" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
